--- a/daily_mood/dailybean.xlsx
+++ b/daily_mood/dailybean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew.Mccartney2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew.Mccartney2\Desktop\daily_mood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD06F2-CE6D-4FD0-9405-A1C7634CF70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45EF3AC-367A-4688-A830-B285F8129673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{277B0FB7-2DE8-446E-BADA-B215D7BDF4BC}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>date</t>
-  </si>
   <si>
     <t>rating</t>
   </si>
@@ -117,6 +114,9 @@
   <si>
     <t>feeling_tired</t>
   </si>
+  <si>
+    <t>day</t>
+  </si>
 </sst>
 </file>
 
@@ -179,9 +179,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +219,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +467,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,91 +475,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F57B2F-6958-4EF5-B86B-75C37A8727AB}">
-  <dimension ref="A1:X126"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="24" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -9934,6 +9935,3930 @@
         <v>1</v>
       </c>
       <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <f t="shared" ref="G127:G182" si="4">WEEKDAY(A127)</f>
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
+        <v>1</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>0</v>
+      </c>
+      <c r="T129">
+        <v>1</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+      <c r="T130">
+        <v>1</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>1</v>
+      </c>
+      <c r="X130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>1</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>1</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <v>1</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>1</v>
+      </c>
+      <c r="U134">
+        <v>1</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>1</v>
+      </c>
+      <c r="T136">
+        <v>1</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>1</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>1</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+      <c r="T140">
+        <v>1</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+      <c r="V140">
+        <v>0</v>
+      </c>
+      <c r="W140">
+        <v>1</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>1</v>
+      </c>
+      <c r="X141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>1</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+      <c r="T143">
+        <v>1</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>1</v>
+      </c>
+      <c r="X144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>1</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
+        <v>45371</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A147" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>1</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>1</v>
+      </c>
+      <c r="X147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A148" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>1</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>1</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>1</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A149" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149">
+        <v>1</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>1</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A150" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>1</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A151" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>1</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A152" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>0</v>
+      </c>
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
+        <v>45381</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>1</v>
+      </c>
+      <c r="U153">
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <v>0</v>
+      </c>
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A154" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154">
+        <v>1</v>
+      </c>
+      <c r="T154">
+        <v>1</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+      <c r="V154">
+        <v>0</v>
+      </c>
+      <c r="W154">
+        <v>1</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A155" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>1</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155">
+        <v>0</v>
+      </c>
+      <c r="V155">
+        <v>0</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A156" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>1</v>
+      </c>
+      <c r="S156">
+        <v>1</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156">
+        <v>0</v>
+      </c>
+      <c r="W156">
+        <v>1</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A157" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="S157">
+        <v>1</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <v>0</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A158" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>1</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>1</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>45388</v>
+      </c>
+      <c r="B160">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>1</v>
+      </c>
+      <c r="T160">
+        <v>1</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>45389</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>1</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>1</v>
+      </c>
+      <c r="T161">
+        <v>1</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>1</v>
+      </c>
+      <c r="S162">
+        <v>1</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>1</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>1</v>
+      </c>
+      <c r="X162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>1</v>
+      </c>
+      <c r="R163">
+        <v>1</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+      <c r="T163">
+        <v>1</v>
+      </c>
+      <c r="U163">
+        <v>1</v>
+      </c>
+      <c r="V163">
+        <v>0</v>
+      </c>
+      <c r="W163">
+        <v>1</v>
+      </c>
+      <c r="X163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>1</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <v>1</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>1</v>
+      </c>
+      <c r="S165">
+        <v>1</v>
+      </c>
+      <c r="T165">
+        <v>1</v>
+      </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>1</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>1</v>
+      </c>
+      <c r="R166">
+        <v>1</v>
+      </c>
+      <c r="S166">
+        <v>1</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>1</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+      <c r="W166">
+        <v>1</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>1</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <v>0</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B168">
+        <v>3</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+      <c r="V168">
+        <v>0</v>
+      </c>
+      <c r="W168">
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+      <c r="V170">
+        <v>0</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A171" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <v>0</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A172" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0</v>
+      </c>
+      <c r="V172">
+        <v>0</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A173" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>1</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>1</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <v>0</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A174" s="1">
+        <v>45402</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
+        <v>1</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+      <c r="V174">
+        <v>1</v>
+      </c>
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A175" s="1">
+        <v>45403</v>
+      </c>
+      <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
+      <c r="W175">
+        <v>1</v>
+      </c>
+      <c r="X175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A176" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>1</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+      <c r="V176">
+        <v>0</v>
+      </c>
+      <c r="W176">
+        <v>0</v>
+      </c>
+      <c r="X176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A177" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B177">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>1</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+      <c r="V177">
+        <v>0</v>
+      </c>
+      <c r="W177">
+        <v>1</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A178" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>1</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A179" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>1</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>1</v>
+      </c>
+      <c r="X179">
         <v>0</v>
       </c>
     </row>
@@ -10011,12 +13936,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
